--- a/2. IMPLEMENTARE/00. CONTRACT_BUGET_CONTURI/BUGET CLOUDIFIER.xlsx
+++ b/2. IMPLEMENTARE/00. CONTRACT_BUGET_CONTURI/BUGET CLOUDIFIER.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17668"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slash_000\Dropbox\_IMPLEMENTARE POC1\03. Cloudifier\2. IMPLEMENTARE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\_CLOUDIFIER_POC1\03. Cloudifier\2. IMPLEMENTARE\00. CONTRACT_BUGET_CONTURI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Buget Structura Noua'!$B$2:$H$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">VECHI!$B$2:$H$42</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -922,6 +922,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,21 +954,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1252,30 +1252,30 @@
   </sheetPr>
   <dimension ref="B1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="58"/>
-    <col min="2" max="2" width="5.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="58"/>
+    <col min="2" max="2" width="5.73046875" style="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93" style="59" customWidth="1"/>
-    <col min="4" max="8" width="16.7109375" style="58" customWidth="1"/>
+    <col min="4" max="8" width="16.73046875" style="58" customWidth="1"/>
     <col min="9" max="9" width="10" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.1328125" style="58" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" style="58" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.3984375" style="58" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="58" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="58"/>
+    <col min="17" max="17" width="16.1328125" style="58" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1328125" style="58" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.3984375" style="58" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.86328125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:19" ht="54.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="62">
         <v>1</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="97" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="100" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="67">
         <v>1.1000000000000001</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>251500</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="67">
         <v>1.2</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="69">
         <v>1.3</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="G8" s="69"/>
       <c r="H8" s="70"/>
     </row>
-    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="71"/>
       <c r="C9" s="72" t="s">
         <v>10</v>
@@ -1569,7 +1569,7 @@
         <v>0.30174344900286715</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="104" t="s">
         <v>25</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="G10" s="76"/>
       <c r="H10" s="77"/>
     </row>
-    <row r="11" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="78">
         <v>2.1</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>226350</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="78">
         <v>2.2000000000000002</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>53225.806451612902</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="78">
         <v>2.2999999999999998</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="G13" s="66"/>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="78">
         <v>2.4</v>
       </c>
@@ -1670,7 +1670,7 @@
       <c r="G14" s="66"/>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="78"/>
       <c r="C15" s="66" t="s">
         <v>30</v>
@@ -1681,7 +1681,7 @@
       <c r="G15" s="66"/>
       <c r="H15" s="68"/>
     </row>
-    <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="78"/>
       <c r="C16" s="80" t="s">
         <v>31</v>
@@ -1720,7 +1720,7 @@
         <v>82494.720000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="81"/>
       <c r="C17" s="72" t="s">
         <v>11</v>
@@ -1753,7 +1753,7 @@
         <v>19514.879999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="104" t="s">
         <v>32</v>
       </c>
@@ -1764,7 +1764,7 @@
       <c r="G18" s="66"/>
       <c r="H18" s="65"/>
     </row>
-    <row r="19" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="78">
         <v>3.1</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="G19" s="66"/>
       <c r="H19" s="65"/>
     </row>
-    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="78"/>
       <c r="C20" s="80" t="s">
         <v>34</v>
@@ -1796,7 +1796,7 @@
         <v>62875</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="78"/>
       <c r="C21" s="80" t="s">
         <v>35</v>
@@ -1811,7 +1811,7 @@
         <v>20958.333333333332</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="78"/>
       <c r="C22" s="80" t="s">
         <v>36</v>
@@ -1854,7 +1854,7 @@
         <v>9677.4193548387102</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="78"/>
       <c r="C23" s="80" t="s">
         <v>37</v>
@@ -1865,7 +1865,7 @@
       <c r="G23" s="66"/>
       <c r="H23" s="68"/>
     </row>
-    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="78">
         <v>3.2</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="G24" s="66"/>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="78"/>
       <c r="C25" s="80" t="s">
         <v>38</v>
@@ -1914,7 +1914,7 @@
         <v>32258.064516129034</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="78"/>
       <c r="C26" s="80" t="s">
         <v>39</v>
@@ -1925,7 +1925,7 @@
       <c r="G26" s="66"/>
       <c r="H26" s="68"/>
     </row>
-    <row r="27" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="78"/>
       <c r="C27" s="80" t="s">
         <v>40</v>
@@ -1936,7 +1936,7 @@
       <c r="G27" s="66"/>
       <c r="H27" s="68"/>
     </row>
-    <row r="28" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="81"/>
       <c r="C28" s="85" t="s">
         <v>55</v>
@@ -1961,7 +1961,7 @@
         <v>95806.451612903242</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="104" t="s">
         <v>41</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="97" t="s">
         <v>54</v>
       </c>
@@ -2008,7 +2008,7 @@
       <c r="G30" s="66"/>
       <c r="H30" s="65"/>
     </row>
-    <row r="31" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="97" t="s">
         <v>42</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>688485.48387096776</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="97" t="s">
         <v>43</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>440782.25806451612</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="97" t="s">
         <v>44</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="G33" s="88"/>
       <c r="H33" s="65"/>
     </row>
-    <row r="34" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="106" t="s">
         <v>45</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>6121.9758064516127</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="108" t="s">
         <v>46</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>122439.51612903226</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="97" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="G36" s="98"/>
       <c r="H36" s="99"/>
     </row>
-    <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="78">
         <v>1</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="G37" s="88"/>
       <c r="H37" s="91"/>
     </row>
-    <row r="38" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="78">
         <v>2</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>12580.645161290322</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="78">
         <v>3</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>5225.8064516129034</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="78" t="s">
         <v>50</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="G40" s="88"/>
       <c r="H40" s="91"/>
     </row>
-    <row r="41" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="97" t="s">
         <v>4</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="G41" s="88"/>
       <c r="H41" s="91"/>
     </row>
-    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="102" t="s">
         <v>52</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>798681.04838709673</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
       <c r="G44" s="58" t="s">
         <v>67</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>106548.79032258072</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
       <c r="G45" s="58" t="s">
         <v>68</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>88742.338709677453</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.45">
       <c r="D47" s="58" t="s">
         <v>5</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
       <c r="D48" s="58" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D49" s="58" t="s">
         <v>7</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D50" s="58" t="s">
         <v>8</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D51" s="58" t="s">
         <v>9</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D53" s="58" t="s">
         <v>12</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D54" s="58" t="s">
         <v>13</v>
       </c>
@@ -2376,24 +2376,24 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93" style="19" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:18" ht="67.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -2491,15 +2491,15 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="111"/>
       <c r="K4" s="7">
         <f t="shared" ref="K4:K5" si="0">(M4+N4)*20</f>
@@ -2529,11 +2529,11 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="119" t="s">
+    <row r="5" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="120"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
@@ -2567,7 +2567,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>251500</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="15">
         <v>1.2</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="23">
         <v>1.3</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="52"/>
       <c r="C9" s="49" t="s">
         <v>10</v>
@@ -2667,18 +2667,18 @@
         <v>0.27132083209915925</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="121" t="s">
+    <row r="10" spans="2:18" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="32"/>
       <c r="E10" s="36"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="1">
         <v>2.1</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>226350</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>12774.193548387097</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="1">
         <v>2.4</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="1"/>
       <c r="C15" s="14" t="s">
         <v>30</v>
@@ -2770,7 +2770,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="1"/>
       <c r="C16" s="8" t="s">
         <v>31</v>
@@ -2804,7 +2804,7 @@
         <v>82494.720000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="16"/>
       <c r="C17" s="49" t="s">
         <v>11</v>
@@ -2837,18 +2837,18 @@
         <v>19514.879999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="121" t="s">
+    <row r="18" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="122"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="1">
         <v>3.1</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="1"/>
       <c r="C20" s="8" t="s">
         <v>34</v>
@@ -2880,7 +2880,7 @@
         <v>62875</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="1"/>
       <c r="C21" s="8" t="s">
         <v>35</v>
@@ -2895,7 +2895,7 @@
         <v>20958.333333333332</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="1"/>
       <c r="C22" s="8" t="s">
         <v>36</v>
@@ -2922,7 +2922,7 @@
         <v>13548.387096774193</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="1"/>
       <c r="C23" s="8" t="s">
         <v>37</v>
@@ -2933,7 +2933,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="30"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="1">
         <v>3.2</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="1"/>
       <c r="C25" s="8" t="s">
         <v>38</v>
@@ -2973,7 +2973,7 @@
         <v>7741.9354838709678</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="1"/>
       <c r="C26" s="8" t="s">
         <v>39</v>
@@ -2984,7 +2984,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="30"/>
     </row>
-    <row r="27" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
         <v>40</v>
@@ -2995,7 +2995,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="30"/>
     </row>
-    <row r="28" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="16"/>
       <c r="C28" s="50" t="s">
         <v>55</v>
@@ -3020,11 +3020,11 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="121" t="s">
+    <row r="29" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="122"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="33">
         <f>E29</f>
         <v>27900</v>
@@ -3047,7 +3047,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="110" t="s">
         <v>54</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="110" t="s">
         <v>42</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>678135</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="110" t="s">
         <v>43</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>579135</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="110" t="s">
         <v>44</v>
       </c>
@@ -3119,11 +3119,11 @@
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="114" t="s">
+    <row r="34" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="115"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="33">
         <f>E34</f>
         <v>160870.83333333334</v>
@@ -3143,11 +3143,11 @@
         <v>144783.75</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="116" t="s">
+    <row r="35" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="117"/>
+      <c r="C35" s="122"/>
       <c r="D35" s="33">
         <f>D31+D34</f>
         <v>914354.16666666674</v>
@@ -3171,18 +3171,18 @@
         <v>160870.83333333334</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
       <c r="H36" s="111"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="1">
         <v>1</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="42"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="1">
         <v>2</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="42"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="1">
         <v>3</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="42"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3244,7 +3244,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="110" t="s">
         <v>4</v>
       </c>
@@ -3261,11 +3261,11 @@
       <c r="G41" s="2"/>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="112" t="s">
+    <row r="42" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="113"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="33">
         <f>D35+D41</f>
         <v>932754.16666666674</v>
@@ -3284,7 +3284,7 @@
         <v>822918.75000000012</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
         <v>5</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
         <v>6</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
         <v>7</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
         <v>8</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
         <v>9</v>
       </c>
@@ -3326,11 +3326,11 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
         <v>12</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
         <v>13</v>
       </c>
@@ -3349,12 +3349,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B31:C31"/>
@@ -3363,6 +3357,12 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
